--- a/bin/test/dataExcel/Libro1.xlsx
+++ b/bin/test/dataExcel/Libro1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIEGO\SELENIUM_CUCUMBER\javaTest\src\test\resources\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9428FA1-2D1E-42F7-869F-B13C42224FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03603CB7-8078-4905-9236-96FA7C72A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5AC34D38-F90C-49AE-8D5F-B9439010A639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5AC34D38-F90C-49AE-8D5F-B9439010A639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="guru99Demo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>IdProducto</t>
   </si>
@@ -231,6 +232,120 @@
   </si>
   <si>
     <t>30 cajas regalo</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>diegomgt</t>
+  </si>
+  <si>
+    <t>Mz AA lote 123 calle testing</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>+051</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>Elizeth</t>
+  </si>
+  <si>
+    <t>Rojas Delgado</t>
+  </si>
+  <si>
+    <t>Gutierrez Tafur</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>elizethRD</t>
+  </si>
+  <si>
+    <t>+052</t>
+  </si>
+  <si>
+    <t>seleniun2@test.com</t>
+  </si>
+  <si>
+    <t>seleniun@test.com</t>
+  </si>
+  <si>
+    <t>+053</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Gutierrez Rojas</t>
+  </si>
+  <si>
+    <t>998877665</t>
+  </si>
+  <si>
+    <t>alessio123</t>
+  </si>
+  <si>
+    <t>seleniun3@test.com</t>
+  </si>
+  <si>
+    <t>mensajeConfirmacion</t>
+  </si>
+  <si>
+    <t>mensajeLogin</t>
+  </si>
+  <si>
+    <t>Note: Your user name is seleniun@test.com.</t>
+  </si>
+  <si>
+    <t>Thank you for Loggin.</t>
   </si>
 </sst>
 </file>
@@ -238,9 +353,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +373,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +393,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,17 +408,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF9350-E6AD-4F36-81E3-1E93FEB8F42C}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1302,4 +1449,201 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24F3DF-FAD6-48BA-B2B6-BF0A0AD47C6A}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="8"/>
+    <col min="5" max="5" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="8"/>
+    <col min="10" max="10" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>